--- a/Shading Nets/my_graphs/impact_3.xlsx
+++ b/Shading Nets/my_graphs/impact_3.xlsx
@@ -534,70 +534,70 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>63.35074065625668</v>
+        <v>0.1178690362721682</v>
       </c>
       <c r="C2">
-        <v>524.6375046903268</v>
+        <v>0.9760697744786739</v>
       </c>
       <c r="D2">
-        <v>2.900087895643082</v>
+        <v>0.00539584162470419</v>
       </c>
       <c r="E2">
-        <v>0.05564554597367533</v>
+        <v>0.0001035266177495942</v>
       </c>
       <c r="F2">
-        <v>0.04592052771840827</v>
+        <v>8.543874719180167E-05</v>
       </c>
       <c r="G2">
-        <v>1.92202086414909</v>
+        <v>0.003575852777430555</v>
       </c>
       <c r="H2">
-        <v>0.3030226077326006</v>
+        <v>0.0005637973990815226</v>
       </c>
       <c r="I2">
-        <v>0.001128656828768726</v>
+        <v>2.099825906043407E-06</v>
       </c>
       <c r="J2">
-        <v>7.400600631721318</v>
+        <v>0.01376939984038472</v>
       </c>
       <c r="K2">
-        <v>19.26942308386788</v>
+        <v>0.03585008904337883</v>
       </c>
       <c r="L2">
-        <v>2.674169668229297</v>
+        <v>0.00497550331056118</v>
       </c>
       <c r="M2">
-        <v>27.67079742765054</v>
+        <v>0.05148055288009346</v>
       </c>
       <c r="N2">
-        <v>5.692745664622635</v>
+        <v>0.0105918007902801</v>
       </c>
       <c r="O2">
-        <v>420.3834450130817</v>
+        <v>0.7821087350603193</v>
       </c>
       <c r="P2">
-        <v>0.1207514523645239</v>
+        <v>0.1207588221191696</v>
       </c>
       <c r="Q2">
-        <v>8.281473890526838</v>
+        <v>8.280968482891961</v>
       </c>
       <c r="R2">
-        <v>-28.94523341045715</v>
+        <v>-0.0538548896292923</v>
       </c>
       <c r="S2">
-        <v>1.462815586965007</v>
+        <v>0.002721465305512538</v>
       </c>
       <c r="T2">
-        <v>-3.029097420497237</v>
+        <v>-0.005635874164909183</v>
       </c>
       <c r="U2">
-        <v>363.4559883668553</v>
+        <v>0.6761907271575183</v>
       </c>
       <c r="V2">
-        <v>-54.7365832333453</v>
+        <v>-0.1018439093604684</v>
       </c>
       <c r="W2">
-        <v>0.929100745357573</v>
+        <v>0.001725519774481654</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -605,70 +605,70 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>126.6937351673841</v>
+        <v>0.2357380464673042</v>
       </c>
       <c r="C3">
-        <v>524.6375046903268</v>
+        <v>0.9760697744786739</v>
       </c>
       <c r="D3">
-        <v>5.799821186228655</v>
+        <v>0.01079168207070325</v>
       </c>
       <c r="E3">
-        <v>0.05564554597367533</v>
+        <v>0.0001035266177495942</v>
       </c>
       <c r="F3">
-        <v>0.09183544056213577</v>
+        <v>0.0001708774834696669</v>
       </c>
       <c r="G3">
-        <v>1.92202086414909</v>
+        <v>0.003575852777430555</v>
       </c>
       <c r="H3">
-        <v>0.6060081637033363</v>
+        <v>0.001127594668105303</v>
       </c>
       <c r="I3">
-        <v>0.001128656828768726</v>
+        <v>2.099825906043407E-06</v>
       </c>
       <c r="J3">
-        <v>14.80029636342078</v>
+        <v>0.02753879642114043</v>
       </c>
       <c r="K3">
-        <v>19.26942308386788</v>
+        <v>0.03585008904337883</v>
       </c>
       <c r="L3">
-        <v>5.348012355156243</v>
+        <v>0.009951005224138498</v>
       </c>
       <c r="M3">
-        <v>27.67079742765054</v>
+        <v>0.05148055288009346</v>
       </c>
       <c r="N3">
-        <v>11.38479525549337</v>
+        <v>0.02118359971791506</v>
       </c>
       <c r="O3">
-        <v>420.3834450130817</v>
+        <v>0.7821087350603193</v>
       </c>
       <c r="P3">
-        <v>0.2414881399723159</v>
+        <v>0.2415176175219786</v>
       </c>
       <c r="Q3">
-        <v>4.140990112866991</v>
+        <v>4.140484699460892</v>
       </c>
       <c r="R3">
-        <v>-57.94256631631288</v>
+        <v>-0.1078132940892829</v>
       </c>
       <c r="S3">
-        <v>1.003666458527732</v>
+        <v>0.001867077942733886</v>
       </c>
       <c r="T3">
-        <v>-6.058952980204594</v>
+        <v>-0.01127384685514699</v>
       </c>
       <c r="U3">
-        <v>306.5354924581479</v>
+        <v>0.5702727378811687</v>
       </c>
       <c r="V3">
-        <v>-128.73354055034</v>
+        <v>-0.2395378751680255</v>
       </c>
       <c r="W3">
-        <v>-25.80932612391189</v>
+        <v>-0.04802949936129153</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -676,70 +676,70 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>190.0289849564433</v>
+        <v>0.3536070296540856</v>
       </c>
       <c r="C4">
-        <v>524.6375046903268</v>
+        <v>0.9760697744786739</v>
       </c>
       <c r="D4">
-        <v>8.699199936774676</v>
+        <v>0.01618752125068568</v>
       </c>
       <c r="E4">
-        <v>0.05564554597367533</v>
+        <v>0.0001035266177495942</v>
       </c>
       <c r="F4">
-        <v>0.1377447395425406</v>
+        <v>0.0002563162033766275</v>
       </c>
       <c r="G4">
-        <v>1.92202086414909</v>
+        <v>0.003575852777430555</v>
       </c>
       <c r="H4">
-        <v>0.9089566747115896</v>
+        <v>0.00169139181070932</v>
       </c>
       <c r="I4">
-        <v>0.001128656828768726</v>
+        <v>2.099825906043407E-06</v>
       </c>
       <c r="J4">
-        <v>22.19908736040816</v>
+        <v>0.04130818974226713</v>
       </c>
       <c r="K4">
-        <v>19.26942308386788</v>
+        <v>0.03585008904337883</v>
       </c>
       <c r="L4">
-        <v>8.021528121316805</v>
+        <v>0.01492650574073195</v>
       </c>
       <c r="M4">
-        <v>27.67079742765054</v>
+        <v>0.05148055288009346</v>
       </c>
       <c r="N4">
-        <v>17.07614889973775</v>
+        <v>0.03177539585158229</v>
       </c>
       <c r="O4">
-        <v>420.3834450130817</v>
+        <v>0.7821087350603193</v>
       </c>
       <c r="P4">
-        <v>0.362210065535841</v>
+        <v>0.3622763852542711</v>
       </c>
       <c r="Q4">
-        <v>2.760828853611881</v>
+        <v>2.76032344558735</v>
       </c>
       <c r="R4">
-        <v>-86.93635382177308</v>
+        <v>-0.1617716858891072</v>
       </c>
       <c r="S4">
-        <v>0.5445734687236836</v>
+        <v>0.00101269074366428</v>
       </c>
       <c r="T4">
-        <v>-9.088438090287127</v>
+        <v>-0.01691181828118715</v>
       </c>
       <c r="U4">
-        <v>249.6219560157042</v>
+        <v>0.4643547765444964</v>
       </c>
       <c r="V4">
-        <v>-202.7214505202137</v>
+        <v>-0.3772318083792925</v>
       </c>
       <c r="W4">
-        <v>-52.54448378551751</v>
+        <v>-0.09778450452722609</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -747,70 +747,70 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>253.3564914446324</v>
+        <v>0.4714759849011898</v>
       </c>
       <c r="C5">
-        <v>524.6375046903268</v>
+        <v>0.9760697744786739</v>
       </c>
       <c r="D5">
-        <v>11.59822421225545</v>
+        <v>0.02158335923741106</v>
       </c>
       <c r="E5">
-        <v>0.05564554597367533</v>
+        <v>0.0001035266177495942</v>
       </c>
       <c r="F5">
-        <v>0.1836484257073607</v>
+        <v>0.0003417548941797577</v>
       </c>
       <c r="G5">
-        <v>1.92202086414909</v>
+        <v>0.003575852777430555</v>
       </c>
       <c r="H5">
-        <v>1.211868147548557</v>
+        <v>0.002255188822346099</v>
       </c>
       <c r="I5">
-        <v>0.001128656828768726</v>
+        <v>2.099825906043407E-06</v>
       </c>
       <c r="J5">
-        <v>29.59697378845885</v>
+        <v>0.05507757980376482</v>
       </c>
       <c r="K5">
-        <v>19.26942308386788</v>
+        <v>0.03585008904337883</v>
       </c>
       <c r="L5">
-        <v>10.69471702515148</v>
+        <v>0.01990200555883348</v>
       </c>
       <c r="M5">
-        <v>27.67079742765054</v>
+        <v>0.05148055288009346</v>
       </c>
       <c r="N5">
-        <v>22.76680672494695</v>
+        <v>0.04236718965694308</v>
       </c>
       <c r="O5">
-        <v>420.3834450130817</v>
+        <v>0.7821087350603193</v>
       </c>
       <c r="P5">
-        <v>0.4829172317640138</v>
+        <v>0.4830351243618917</v>
       </c>
       <c r="Q5">
-        <v>2.07074822397033</v>
+        <v>2.070242824103194</v>
       </c>
       <c r="R5">
-        <v>-115.9265965765808</v>
+        <v>-0.215730065756361</v>
       </c>
       <c r="S5">
-        <v>0.08553660707548261</v>
+        <v>0.000158303835632978</v>
       </c>
       <c r="T5">
-        <v>-12.1175528186568</v>
+        <v>-0.02254978839755495</v>
       </c>
       <c r="U5">
-        <v>192.7153777636122</v>
+        <v>0.3584368384908885</v>
       </c>
       <c r="V5">
-        <v>-276.7003148007207</v>
+        <v>-0.5149257089942694</v>
       </c>
       <c r="W5">
-        <v>-79.27637282386422</v>
+        <v>-0.1475395027082413</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -818,70 +818,70 @@
         <v>26</v>
       </c>
       <c r="B6">
-        <v>316.6762560512871</v>
+        <v>0.5893449140712619</v>
       </c>
       <c r="C6">
-        <v>524.6375046903268</v>
+        <v>0.9760697744786739</v>
       </c>
       <c r="D6">
-        <v>14.49689407771803</v>
+        <v>0.02697919601632748</v>
       </c>
       <c r="E6">
-        <v>0.05564554597367533</v>
+        <v>0.0001035266177495942</v>
       </c>
       <c r="F6">
-        <v>0.2295465000788681</v>
+        <v>0.0004271935686119832</v>
       </c>
       <c r="G6">
-        <v>1.92202086414909</v>
+        <v>0.003575852777430555</v>
       </c>
       <c r="H6">
-        <v>1.514742589009074</v>
+        <v>0.00281898570847261</v>
       </c>
       <c r="I6">
-        <v>0.001128656828768726</v>
+        <v>2.099825906043407E-06</v>
       </c>
       <c r="J6">
-        <v>36.99395581427962</v>
+        <v>0.06884696707129478</v>
       </c>
       <c r="K6">
-        <v>19.26942308386788</v>
+        <v>0.03585008904337883</v>
       </c>
       <c r="L6">
-        <v>13.36757912882604</v>
+        <v>0.02487750397995114</v>
       </c>
       <c r="M6">
-        <v>27.67079742765054</v>
+        <v>0.05148055288009346</v>
       </c>
       <c r="N6">
-        <v>28.45676885871217</v>
+        <v>0.05295898113399744</v>
       </c>
       <c r="O6">
-        <v>420.3834450130817</v>
+        <v>0.7821087350603193</v>
       </c>
       <c r="P6">
-        <v>0.6036096413621989</v>
+        <v>0.6037938367531516</v>
       </c>
       <c r="Q6">
-        <v>1.656699846184109</v>
+        <v>1.656194447723104</v>
       </c>
       <c r="R6">
-        <v>-144.9132952312066</v>
+        <v>-0.2696884335455252</v>
       </c>
       <c r="S6">
-        <v>-0.3734441366395913</v>
+        <v>-0.0006960829086892772</v>
       </c>
       <c r="T6">
-        <v>-15.14629723326198</v>
+        <v>-0.02818775725882006</v>
       </c>
       <c r="U6">
-        <v>135.81575642596</v>
+        <v>0.2525189237203449</v>
       </c>
       <c r="V6">
-        <v>-350.6701350589283</v>
+        <v>-0.652619581669569</v>
       </c>
       <c r="W6">
-        <v>-106.0049938606098</v>
+        <v>-0.197294486919418</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -892,67 +892,67 @@
         <v>1.862645149230957E-09</v>
       </c>
       <c r="C7">
-        <v>524.6375046903268</v>
+        <v>0.9760697744786739</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05564554597367533</v>
+        <v>0.0001035266177495942</v>
       </c>
       <c r="F7">
         <v>1.818989403545856E-12</v>
       </c>
       <c r="G7">
-        <v>1.92202086414909</v>
+        <v>0.003575852777430555</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.001128656828768726</v>
+        <v>2.099825906043407E-06</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>19.26942308386788</v>
+        <v>0.03585008904337883</v>
       </c>
       <c r="L7">
         <v>4.656612873077393E-10</v>
       </c>
       <c r="M7">
-        <v>27.67079742765054</v>
+        <v>0.05148055288009346</v>
       </c>
       <c r="N7">
         <v>-4.656612873077393E-10</v>
       </c>
       <c r="O7">
-        <v>420.3834450130817</v>
+        <v>0.7821087350603193</v>
       </c>
       <c r="P7">
-        <v>3.550346920642672E-12</v>
+        <v>1.908311473148331E-09</v>
       </c>
       <c r="Q7">
-        <v>281662615612.5</v>
+        <v>524023470</v>
       </c>
       <c r="R7">
-        <v>0.05564554597367533</v>
+        <v>0.0001035266177495942</v>
       </c>
       <c r="S7">
-        <v>1.9220208641309</v>
+        <v>0.003575852759240661</v>
       </c>
       <c r="T7">
-        <v>0.001128656828768726</v>
+        <v>2.099825906043407E-06</v>
       </c>
       <c r="U7">
-        <v>420.3834450177383</v>
+        <v>0.7821087397169322</v>
       </c>
       <c r="V7">
-        <v>19.26942308386788</v>
+        <v>0.03585008904337883</v>
       </c>
       <c r="W7">
-        <v>27.67079742299393</v>
+        <v>0.05148054822348058</v>
       </c>
     </row>
   </sheetData>
